--- a/files/ar.xlsx
+++ b/files/ar.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\AnkiCardImporter\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1625CC1-6785-4E0A-A31E-65E904CF4643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7A1C53-A774-4CC3-80BC-0CE48CCC8B71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" xr2:uid="{2014EC9F-F3EF-4E1E-89B4-AABFBE8FC386}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" activeTab="1" xr2:uid="{2014EC9F-F3EF-4E1E-89B4-AABFBE8FC386}"/>
   </bookViews>
   <sheets>
     <sheet name="voc" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ar" localSheetId="0">voc!$A$1:$G$41</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>msa, ls</t>
   </si>
@@ -119,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -142,11 +143,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -166,11 +237,230 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -185,6 +475,22 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ar" connectionId="1" xr16:uid="{B2453042-E746-4F19-9801-AAA333DDFBD3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FD816AC-914F-445B-9543-4FA24ECB1ACD}" name="Tabelle1" displayName="Tabelle1" ref="A1:G2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:G2" xr:uid="{0D5991B4-E4C3-4F65-8E83-15253237CD2F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{75399977-EA7C-4EAC-92BB-C4E338D26B94}" name="Translation" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{51970288-3CD7-4CF9-8C91-1DF11A2416AA}" name="Gender" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{834E8A9E-DAF3-42F2-8E7E-CDEAEE223B64}" name="Note" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{97AC920B-2E14-4A09-9CC6-10EDA1A3EE80}" name="Tags" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C1D4F861-B3B2-4470-80CB-8832123AB2C4}" name="Pronunciation" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{DBC94E6D-9EA5-4628-8710-0C7209EBFDD7}" name="Word" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{3E2AF4C6-E922-480E-B681-DF7BF3900D44}" name="Plural" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67B25AB-1AAE-4CB5-8BF1-2F6673C66C98}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -894,4 +1200,69 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A15DC19-3FC5-4F18-AA42-655F82ABB53D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>